--- a/API_5/test_cases/接口测试第五阶段测试用例.xlsx
+++ b/API_5/test_cases/接口测试第五阶段测试用例.xlsx
@@ -219,7 +219,7 @@
     <t>{"status":1,"code":"10001","data":{"id":1123264,"regname":"chengguo","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18510267039","leaveamount":"21069120.00","type":"1","regtime":"2019-03-09 18:22:05.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123264,"regname":"chengguo","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18510267039","leaveamount":"22329120.00","type":"1","regtime":"2019-03-09 18:22:05.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":1123264,"regname":"chengguo","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18510267039","leaveamount":"22369120.00","type":"1","regtime":"2019-03-09 18:22:05.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>手机号不存在</t>

--- a/API_5/test_cases/接口测试第五阶段测试用例.xlsx
+++ b/API_5/test_cases/接口测试第五阶段测试用例.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7995" windowWidth="18600"/>
+    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8265" windowWidth="19200"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="recharge" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="withdraw" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="add" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="register" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>case_id</t>
   </si>
@@ -57,7 +59,8 @@
     <t>注册</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/register</t>
+    <t xml:space="preserve">http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_
+</t>
   </si>
   <si>
     <t>输入正确手机号和6-18位以内的密码</t>
@@ -135,7 +138,7 @@
     <t>"登录"</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/login</t>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/login</t>
   </si>
   <si>
     <t>用户名正确，密码正确</t>
@@ -204,7 +207,7 @@
     <t>充值</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/recharge</t>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/recharge</t>
   </si>
   <si>
     <t>手机号正确充值金额正确</t>
@@ -219,7 +222,8 @@
     <t>{"status":1,"code":"10001","data":{"id":1123264,"regname":"chengguo","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18510267039","leaveamount":"21069120.00","type":"1","regtime":"2019-03-09 18:22:05.0"},"msg":"充值成功"}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123264,"regname":"chengguo","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18510267039","leaveamount":"22369120.00","type":"1","regtime":"2019-03-09 18:22:05.0"},"msg":"充值成功"}</t>
+    <t>{"status":1,"code":"10001","data":{"id":96,"regname":"èªé­æ£è+","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"18510267039","leaveamount":"100000.00","type":"1","regtime":"2019-04-01 18:43:05.0"},"msg":"充值成功"}</t>
   </si>
   <si>
     <t>手机号不存在</t>
@@ -255,7 +259,7 @@
     <t>提现</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/withdraw</t>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw</t>
   </si>
   <si>
     <t>正确手机号和金额</t>
@@ -306,7 +310,7 @@
     <t>加标</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/loan/add</t>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/add</t>
   </si>
   <si>
     <t>参数正确</t>
@@ -327,7 +331,7 @@
     <t>审核</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/loan/audit</t>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/loan/audit</t>
   </si>
   <si>
     <t>审核成功</t>
@@ -345,7 +349,7 @@
     <t>投资竞标</t>
   </si>
   <si>
-    <t>http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan</t>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/bidLoan</t>
   </si>
   <si>
     <t>竞标成功</t>
@@ -358,6 +362,21 @@
   </si>
   <si>
     <t>{"status":0,"code":"11013","data":null,"msg":"请根据数值参数的类型对应输入合法的数字"}</t>
+  </si>
+  <si>
+    <t>http://120.78.128.25:8080/futureloan/mvc/api/member/register</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18510267039','pwd':'123456','regname':'自闭患者'}</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18510267039','pwd':'1234567891234567891','regname':'妈呀'}</t>
+  </si>
+  <si>
+    <t>{'mobilephone':'18510267039','pwd':'123456','regname':'小晚晴'}</t>
   </si>
 </sst>
 </file>
@@ -370,7 +389,7 @@
     <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
     <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -391,6 +410,14 @@
       <charset val="134"/>
       <color theme="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Consolas"/>
@@ -515,7 +542,8 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -529,8 +557,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -544,187 +571,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,10 +911,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="23" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="16" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -896,135 +923,135 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="11" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="15" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="14" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="14" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="6" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="10" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="10" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="3" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -1033,14 +1060,19 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment wrapText="1"/>
@@ -1048,11 +1080,11 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1374,17 +1406,17 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD24"/>
+      <selection activeCell="A2" sqref="$A2:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="10" width="7.66666666666667"/>
+    <col customWidth="1" max="1" min="1" style="13" width="7.66666666666667"/>
     <col customWidth="1" max="2" min="2" width="12.775"/>
-    <col customWidth="1" max="3" min="3" style="8" width="64.44166666666671"/>
+    <col customWidth="1" max="3" min="3" style="6" width="64.44166666666671"/>
     <col customWidth="1" max="4" min="4" width="33.8916666666667"/>
     <col customWidth="1" max="5" min="5" width="10.1083333333333"/>
-    <col customWidth="1" max="7" min="6" style="8" width="67.77500000000001"/>
+    <col customWidth="1" max="7" min="6" style="6" width="67.77500000000001"/>
     <col customWidth="1" max="8" min="8" width="63.775"/>
     <col customWidth="1" max="9" min="9" width="61.6666666666667"/>
     <col customWidth="1" max="10" min="10" width="18.6666666666667"/>
@@ -1416,7 +1448,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1433,7 +1465,7 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1445,10 +1477,10 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1465,7 +1497,7 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1481,7 +1513,7 @@
       <c r="H3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1498,7 +1530,7 @@
       <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1514,7 +1546,7 @@
       <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1531,7 +1563,7 @@
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1547,7 +1579,7 @@
       <c r="H5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1564,7 +1596,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1580,7 +1612,7 @@
       <c r="H6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1592,11 +1624,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="C2" r:id="rId1"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="C3" r:id="rId2"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="C4" r:id="rId3"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="C5" r:id="rId4"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/register" ref="C6" r:id="rId5"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" ref="C2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" r:id="rId1"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" ref="C3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" r:id="rId2"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" ref="C4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" r:id="rId3"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" ref="C5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" r:id="rId4"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" ref="C6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register_x0002_&#10;" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
@@ -1642,8 +1674,8 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
@@ -1655,7 +1687,7 @@
     <col customWidth="1" max="5" min="5" width="7"/>
     <col customWidth="1" max="6" min="6" width="30.125"/>
     <col customWidth="1" max="7" min="7" width="9.375"/>
-    <col customWidth="1" max="8" min="8" width="40"/>
+    <col customWidth="1" max="8" min="8" width="69.25"/>
     <col customWidth="1" max="9" min="9" width="57.25"/>
     <col customWidth="1" max="11" min="10" width="21.875"/>
   </cols>
@@ -1685,7 +1717,7 @@
       <c r="H1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1702,7 +1734,7 @@
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1715,10 +1747,10 @@
         <v>40</v>
       </c>
       <c r="G2" s="3" t="n"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1735,7 +1767,7 @@
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1748,10 +1780,10 @@
         <v>44</v>
       </c>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1768,7 +1800,7 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1781,10 +1813,10 @@
         <v>48</v>
       </c>
       <c r="G4" s="3" t="n"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>46</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -1801,7 +1833,7 @@
       <c r="B5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1814,10 +1846,10 @@
         <v>50</v>
       </c>
       <c r="G5" s="3" t="n"/>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1834,7 +1866,7 @@
       <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1847,10 +1879,10 @@
         <v>54</v>
       </c>
       <c r="G6" s="3" t="n"/>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1862,11 +1894,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C2" r:id="rId1"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C3" r:id="rId2"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C4" r:id="rId3"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C5" r:id="rId4"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C6" r:id="rId5"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId3"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId4"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1880,8 +1912,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="6"/>
@@ -1893,7 +1925,7 @@
     <col customWidth="1" max="5" min="5" width="5.375"/>
     <col customWidth="1" max="6" min="6" width="41.375"/>
     <col customWidth="1" max="7" min="7" width="27.375"/>
-    <col customWidth="1" max="8" min="8" style="8" width="27.375"/>
+    <col customWidth="1" max="8" min="8" style="6" width="27.375"/>
     <col customWidth="1" max="9" min="9" width="71"/>
     <col customWidth="1" max="10" min="10" width="27.375"/>
   </cols>
@@ -1923,7 +1955,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1937,7 +1969,7 @@
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1953,7 +1985,7 @@
       <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -1967,7 +1999,7 @@
       <c r="B3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1982,10 +2014,10 @@
       <c r="G3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>66</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1999,7 +2031,7 @@
       <c r="B4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2029,7 +2061,7 @@
       <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2059,7 +2091,7 @@
       <c r="B6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2089,7 +2121,7 @@
       <c r="B7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2114,10 +2146,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C2" r:id="rId1"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge" r:id="rId2"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge" ref="C4" r:id="rId3"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/recharge" ref="C7" r:id="rId4"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" ref="C3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" r:id="rId2"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" ref="C4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" r:id="rId3"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" ref="C5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" r:id="rId4"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" ref="C6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" r:id="rId5"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" ref="C7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/recharge" r:id="rId6"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2132,7 +2166,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="7"/>
@@ -2173,7 +2207,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2190,7 +2224,7 @@
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2203,10 +2237,10 @@
         <v>40</v>
       </c>
       <c r="G2" s="3" t="n"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -2223,7 +2257,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2236,10 +2270,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -2256,7 +2290,7 @@
       <c r="B4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="10" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2291,7 +2325,7 @@
       <c r="B5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2324,7 +2358,7 @@
       <c r="B6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2357,7 +2391,7 @@
       <c r="B7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2390,7 +2424,7 @@
       <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2418,13 +2452,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C2" r:id="rId1"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C3" r:id="rId2"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/withdraw" ref="C4" r:id="rId3"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/withdraw" ref="C5" r:id="rId4"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/withdraw" ref="C6" r:id="rId5"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/withdraw" ref="C7" r:id="rId6"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/withdraw" ref="C8" r:id="rId7"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" ref="C4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" r:id="rId3"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" ref="C5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" r:id="rId4"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" ref="C6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" r:id="rId5"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" ref="C7" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" r:id="rId6"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" ref="C8" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/withdraw" r:id="rId7"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -2438,8 +2472,8 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
@@ -2481,7 +2515,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -2498,7 +2532,7 @@
       <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2511,10 +2545,10 @@
         <v>93</v>
       </c>
       <c r="G2" s="3" t="n"/>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -2531,7 +2565,7 @@
       <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2544,10 +2578,10 @@
         <v>40</v>
       </c>
       <c r="G3" s="3" t="n"/>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -2564,7 +2598,7 @@
       <c r="B4" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2599,7 +2633,7 @@
       <c r="B5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2632,7 +2666,7 @@
       <c r="B6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2660,11 +2694,262 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C2" r:id="rId1"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/login" ref="C3" r:id="rId2"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/loan/add" ref="C4" r:id="rId3"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/loan/audit" ref="C5" r:id="rId4"/>
-    <hyperlink display="http://47.107.168.87:8080/futureloan/mvc/api/member/bidLoan" ref="C6" r:id="rId5"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId1"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/login" ref="C3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/login" r:id="rId2"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/loan/add" ref="C4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/loan/add" r:id="rId3"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/loan/audit" ref="C5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/loan/audit" r:id="rId4"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/bidLoan" ref="C6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="5"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" width="53.875"/>
+    <col customWidth="1" max="4" min="4" width="26.5"/>
+    <col customWidth="1" max="6" min="6" width="46.375"/>
+    <col customWidth="1" max="8" min="8" width="62.5"/>
+    <col customWidth="1" max="9" min="9" width="48.25"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="25.2" r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.2" r="2" spans="1:11">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="6" t="n"/>
+      <c r="H2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.2" r="3" spans="1:11">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.2" r="4" spans="1:11">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.2" r="5" spans="1:11">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="25.2" r="6" spans="1:11">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="C2" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId1"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="C3" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId2"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="C4" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId3"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="C5" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId4"/>
+    <hyperlink display="http://120.78.128.25:8080/futureloan/mvc/api/member/register" ref="C6" tooltip="http://120.78.128.25:8080/futureloan/mvc/api/member/register" r:id="rId5"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
